--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3217.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3217.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.349485452812003</v>
+        <v>1.691401600837708</v>
       </c>
       <c r="B1">
-        <v>3.517099969667182</v>
+        <v>1.850774765014648</v>
       </c>
       <c r="C1">
-        <v>5.447740227184043</v>
+        <v>2.099740266799927</v>
       </c>
       <c r="D1">
-        <v>2.064944227152066</v>
+        <v>2.629744052886963</v>
       </c>
       <c r="E1">
-        <v>1.280249681491293</v>
+        <v>1.6321941614151</v>
       </c>
     </row>
   </sheetData>
